--- a/Code/Results/Cases/Case_3_68/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_68/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.537369040817396</v>
+        <v>1.239669154284456</v>
       </c>
       <c r="C2">
-        <v>0.9463997171446579</v>
+        <v>0.3097235529693023</v>
       </c>
       <c r="D2">
-        <v>0.4491203918545068</v>
+        <v>0.4044659625363352</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5153550851348569</v>
+        <v>0.8780946014472377</v>
       </c>
       <c r="G2">
-        <v>0.1898482071180183</v>
+        <v>0.3270373396610253</v>
       </c>
       <c r="H2">
-        <v>0.1728421569617353</v>
+        <v>0.5011604010670894</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.444331658142076</v>
+        <v>0.3465189411931107</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7150834637874084</v>
+        <v>1.588787659320644</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.080783462366583</v>
+        <v>1.092238921996511</v>
       </c>
       <c r="C3">
-        <v>0.8313164094140291</v>
+        <v>0.2713006013104291</v>
       </c>
       <c r="D3">
-        <v>0.3979403921327958</v>
+        <v>0.3916086746908718</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.483071754342177</v>
+        <v>0.8813901442152599</v>
       </c>
       <c r="G3">
-        <v>0.1796559190206821</v>
+        <v>0.3311291648688481</v>
       </c>
       <c r="H3">
-        <v>0.1754600095681695</v>
+        <v>0.5078366460444315</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3918403434068551</v>
+        <v>0.334809163559072</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6985303368045237</v>
+        <v>1.611141893736175</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.80052746341363</v>
+        <v>1.001421875712481</v>
       </c>
       <c r="C4">
-        <v>0.7606617664248745</v>
+        <v>0.2476106893304575</v>
       </c>
       <c r="D4">
-        <v>0.3668019936718423</v>
+        <v>0.3838530251474168</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4648554999346999</v>
+        <v>0.8841514360561291</v>
       </c>
       <c r="G4">
-        <v>0.1744717429009839</v>
+        <v>0.3340581561467104</v>
       </c>
       <c r="H4">
-        <v>0.1777260404536918</v>
+        <v>0.5122855973797087</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3601634269856362</v>
+        <v>0.327824504368678</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6920121333346287</v>
+        <v>1.62647268827287</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.686308564641138</v>
+        <v>0.9643416861758851</v>
       </c>
       <c r="C5">
-        <v>0.7318635885239075</v>
+        <v>0.2379329323356103</v>
       </c>
       <c r="D5">
-        <v>0.354177616796818</v>
+        <v>0.3807276203612417</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.457810802045266</v>
+        <v>0.8854618446390745</v>
       </c>
       <c r="G5">
-        <v>0.1726114144085358</v>
+        <v>0.3353560648092824</v>
       </c>
       <c r="H5">
-        <v>0.1788071181945696</v>
+        <v>0.5141864097384357</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3473806838733964</v>
+        <v>0.3250297399127788</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6902181874906148</v>
+        <v>1.633122596567802</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.667340892553739</v>
+        <v>0.9581803041372154</v>
       </c>
       <c r="C6">
-        <v>0.7270811102670223</v>
+        <v>0.2363245248620274</v>
       </c>
       <c r="D6">
-        <v>0.3520850576478267</v>
+        <v>0.3802107739315659</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4566631871726372</v>
+        <v>0.8856906093244987</v>
       </c>
       <c r="G6">
-        <v>0.1723172415012115</v>
+        <v>0.3355778695048812</v>
       </c>
       <c r="H6">
-        <v>0.1789959266052605</v>
+        <v>0.5145073396181488</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3452653492115019</v>
+        <v>0.3245687827287185</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6899708444723984</v>
+        <v>1.634251083916254</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.798987161348748</v>
+        <v>1.000922085505977</v>
       </c>
       <c r="C7">
-        <v>0.7602734173545969</v>
+        <v>0.2474802676092338</v>
       </c>
       <c r="D7">
-        <v>0.3666314838868487</v>
+        <v>0.3838107325347551</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.464758992241336</v>
+        <v>0.8841683594728238</v>
       </c>
       <c r="G7">
-        <v>0.1744456552962745</v>
+        <v>0.3340752383836261</v>
       </c>
       <c r="H7">
-        <v>0.1777399921622447</v>
+        <v>0.512310876931231</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3599905417372611</v>
+        <v>0.327786604583622</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6919845181408988</v>
+        <v>1.62656074315494</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.379897916409448</v>
+        <v>1.188897734072611</v>
       </c>
       <c r="C8">
-        <v>0.9067127531328083</v>
+        <v>0.2964960985494542</v>
       </c>
       <c r="D8">
-        <v>0.4314096023343268</v>
+        <v>0.4000040747079368</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5038748978390828</v>
+        <v>0.8790775468017102</v>
       </c>
       <c r="G8">
-        <v>0.1861000235523349</v>
+        <v>0.328361475529114</v>
       </c>
       <c r="H8">
-        <v>0.1736031618217879</v>
+        <v>0.5033897230123543</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.42610969576711</v>
+        <v>0.3424387839639706</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7085857053761657</v>
+        <v>1.596161545051729</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.521526472234882</v>
+        <v>1.555091194192187</v>
       </c>
       <c r="C9">
-        <v>1.194322919020408</v>
+        <v>0.3918104739963724</v>
       </c>
       <c r="D9">
-        <v>0.5610654174664091</v>
+        <v>0.4328539629383954</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5945319255892016</v>
+        <v>0.8749664177868084</v>
       </c>
       <c r="G9">
-        <v>0.2183250064299358</v>
+        <v>0.3204819841344104</v>
       </c>
       <c r="H9">
-        <v>0.1710976037266008</v>
+        <v>0.4886749970235442</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5607969006098585</v>
+        <v>0.3728042367256421</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7726648119436135</v>
+        <v>1.549337562131512</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.364507635545635</v>
+        <v>1.822559052067106</v>
       </c>
       <c r="C10">
-        <v>1.406508160352075</v>
+        <v>0.4613170848028858</v>
       </c>
       <c r="D10">
-        <v>0.6584613862466142</v>
+        <v>0.457650548427381</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6714387629460958</v>
+        <v>0.875551645210777</v>
       </c>
       <c r="G10">
-        <v>0.248971703519338</v>
+        <v>0.3167473972985562</v>
       </c>
       <c r="H10">
-        <v>0.1732380244039078</v>
+        <v>0.4795652223595894</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6637794468523168</v>
+        <v>0.3961179725474722</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8428098655861191</v>
+        <v>1.522804575096515</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.749587942163998</v>
+        <v>1.943877057524276</v>
       </c>
       <c r="C11">
-        <v>1.503377512519535</v>
+        <v>0.4928185808826697</v>
       </c>
       <c r="D11">
-        <v>0.7033636314742182</v>
+        <v>0.4690738536491494</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7090937789822789</v>
+        <v>0.876606479177056</v>
       </c>
       <c r="G11">
-        <v>0.2647290219237703</v>
+        <v>0.3155004086738202</v>
       </c>
       <c r="H11">
-        <v>0.1752113432695097</v>
+        <v>0.4757917547059307</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7117367458786816</v>
+        <v>0.4069441559018117</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8806519143638241</v>
+        <v>1.512458110483962</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.895697782490402</v>
+        <v>1.989763988017273</v>
       </c>
       <c r="C12">
-        <v>1.540122362329157</v>
+        <v>0.5047298738130621</v>
       </c>
       <c r="D12">
-        <v>0.7204643232124113</v>
+        <v>0.4734200106640571</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7237756352944729</v>
+        <v>0.8771197473566161</v>
       </c>
       <c r="G12">
-        <v>0.2709843426569876</v>
+        <v>0.3150936584514596</v>
       </c>
       <c r="H12">
-        <v>0.1761145862262339</v>
+        <v>0.4744162564645649</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7300776206602251</v>
+        <v>0.4110755879714958</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8959183815798042</v>
+        <v>1.508789272788306</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.864216621016851</v>
+        <v>1.979883839833974</v>
       </c>
       <c r="C13">
-        <v>1.53220570296088</v>
+        <v>0.502165360254196</v>
       </c>
       <c r="D13">
-        <v>0.7167768686635725</v>
+        <v>0.4724830838162291</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7205941832998803</v>
+        <v>0.8770041367203163</v>
       </c>
       <c r="G13">
-        <v>0.2696238658267447</v>
+        <v>0.3151783406072397</v>
       </c>
       <c r="H13">
-        <v>0.1759129137273874</v>
+        <v>0.4747101160189757</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.72611920676637</v>
+        <v>0.4101843952293507</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8925874256221675</v>
+        <v>1.509568321187061</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.761602360977349</v>
+        <v>1.947653291195365</v>
       </c>
       <c r="C14">
-        <v>1.506399202347609</v>
+        <v>0.4937988879545969</v>
       </c>
       <c r="D14">
-        <v>0.7047684990506013</v>
+        <v>0.4694310068832976</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7102929589442653</v>
+        <v>0.8766464224052299</v>
       </c>
       <c r="G14">
-        <v>0.265237708079809</v>
+        <v>0.3154656305098769</v>
       </c>
       <c r="H14">
-        <v>0.1752824537828701</v>
+        <v>0.4756775199890129</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.713241917667645</v>
+        <v>0.407283413799874</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8818886259706744</v>
+        <v>1.512151272336425</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.698787503015922</v>
+        <v>1.927904097252338</v>
       </c>
       <c r="C15">
-        <v>1.490600520678015</v>
+        <v>0.488671862548415</v>
       </c>
       <c r="D15">
-        <v>0.6974260378881638</v>
+        <v>0.4675641724558375</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7040394163035018</v>
+        <v>0.8764421480455979</v>
       </c>
       <c r="G15">
-        <v>0.2625894579641752</v>
+        <v>0.3156501424235216</v>
       </c>
       <c r="H15">
-        <v>0.1749169730945823</v>
+        <v>0.4762770453813019</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.705378360176752</v>
+        <v>0.4055106209423798</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8754598486434588</v>
+        <v>1.513765888981666</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.339378822155254</v>
+        <v>1.814623279994976</v>
       </c>
       <c r="C16">
-        <v>1.400185542764007</v>
+        <v>0.4592559604842563</v>
       </c>
       <c r="D16">
-        <v>0.6555398748465393</v>
+        <v>0.4569068737257282</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6690348902026102</v>
+        <v>0.8754986145034849</v>
       </c>
       <c r="G16">
-        <v>0.247980748060165</v>
+        <v>0.3168380248906857</v>
       </c>
       <c r="H16">
-        <v>0.1731302037051421</v>
+        <v>0.4798192968725772</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6606694054296156</v>
+        <v>0.3954149013474506</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8404631624477901</v>
+        <v>1.523515534119994</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.119343514691536</v>
+        <v>1.745036526342801</v>
       </c>
       <c r="C17">
-        <v>1.344816114949083</v>
+        <v>0.4411796447118945</v>
       </c>
       <c r="D17">
-        <v>0.6300046501225438</v>
+        <v>0.4504055077931923</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6482712049574531</v>
+        <v>0.8751220718747845</v>
       </c>
       <c r="G17">
-        <v>0.2395026177450816</v>
+        <v>0.3176828321166667</v>
       </c>
       <c r="H17">
-        <v>0.1722985259817236</v>
+        <v>0.4820873750854062</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6335405210366218</v>
+        <v>0.3892780620811038</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8205706739773575</v>
+        <v>1.529938990353372</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.992932258334463</v>
+        <v>1.704978855460752</v>
       </c>
       <c r="C18">
-        <v>1.313000740554571</v>
+        <v>0.4307716194696809</v>
       </c>
       <c r="D18">
-        <v>0.6153728555427165</v>
+        <v>0.4466795856303918</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6365772719369005</v>
+        <v>0.8749796970886408</v>
       </c>
       <c r="G18">
-        <v>0.2347954005725512</v>
+        <v>0.3182112489553859</v>
       </c>
       <c r="H18">
-        <v>0.1719134699809715</v>
+        <v>0.4834267894335582</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6180398365760311</v>
+        <v>0.3857690791557218</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8096820971719296</v>
+        <v>1.533795741136245</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.950155190096382</v>
+        <v>1.691410391918907</v>
       </c>
       <c r="C19">
-        <v>1.302233664187611</v>
+        <v>0.4272457737772015</v>
       </c>
       <c r="D19">
-        <v>0.6104279614855557</v>
+        <v>0.4454203755488209</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6326595028982283</v>
+        <v>0.8749442228429913</v>
       </c>
       <c r="G19">
-        <v>0.2332298784808273</v>
+        <v>0.3183974477545704</v>
       </c>
       <c r="H19">
-        <v>0.1717987636874199</v>
+        <v>0.4838862778491091</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6128086763849865</v>
+        <v>0.384584562282285</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8060879628787916</v>
+        <v>1.535129380089273</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.142751008948153</v>
+        <v>1.752447611123046</v>
       </c>
       <c r="C20">
-        <v>1.350706919057245</v>
+        <v>0.4431050440267654</v>
       </c>
       <c r="D20">
-        <v>0.6327171057349972</v>
+        <v>0.4510961943832967</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6504555143263531</v>
+        <v>0.8751544727119551</v>
       </c>
       <c r="G20">
-        <v>0.2403874291966659</v>
+        <v>0.3175884982748869</v>
       </c>
       <c r="H20">
-        <v>0.1723773172960037</v>
+        <v>0.4818423237760072</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6364176176439145</v>
+        <v>0.3899291895775008</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8226304404554128</v>
+        <v>1.52923841123453</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.79173434829994</v>
+        <v>1.957121658883409</v>
       </c>
       <c r="C21">
-        <v>1.513977391708067</v>
+        <v>0.4962568084031886</v>
       </c>
       <c r="D21">
-        <v>0.7082929148562584</v>
+        <v>0.4703269237790266</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7133068811696148</v>
+        <v>0.8767483992103706</v>
       </c>
       <c r="G21">
-        <v>0.2665179751670195</v>
+        <v>0.3153794662289187</v>
       </c>
       <c r="H21">
-        <v>0.1754632992741278</v>
+        <v>0.4753919187625257</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7170192162233207</v>
+        <v>0.4081346390592842</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8850050093166999</v>
+        <v>1.511385824915749</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.217593243777401</v>
+        <v>2.090574578272708</v>
       </c>
       <c r="C22">
-        <v>1.621055370392469</v>
+        <v>0.5308913950134411</v>
       </c>
       <c r="D22">
-        <v>0.7582585530082326</v>
+        <v>0.4830141299110551</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7568680874354925</v>
+        <v>0.878453779578507</v>
       </c>
       <c r="G22">
-        <v>0.2852908222661767</v>
+        <v>0.3143174906438873</v>
       </c>
       <c r="H22">
-        <v>0.1783957861060372</v>
+        <v>0.4714877130864465</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7707600162878521</v>
+        <v>0.4202182862767216</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9312725696380255</v>
+        <v>1.501170930457477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.990127430837276</v>
+        <v>2.019377769559298</v>
       </c>
       <c r="C23">
-        <v>1.563867302948609</v>
+        <v>0.5124159514994062</v>
       </c>
       <c r="D23">
-        <v>0.731534540239835</v>
+        <v>0.4762319219245228</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7333777062914208</v>
+        <v>0.8774827216736014</v>
       </c>
       <c r="G23">
-        <v>0.2751067430232155</v>
+        <v>0.3148491998231435</v>
       </c>
       <c r="H23">
-        <v>0.1767425825850921</v>
+        <v>0.4735429126582886</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7419729129779995</v>
+        <v>0.413752037662789</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9060459669021554</v>
+        <v>1.506489450989079</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.132168204845584</v>
+        <v>1.749097219353303</v>
       </c>
       <c r="C24">
-        <v>1.348043633758607</v>
+        <v>0.4422346198775244</v>
       </c>
       <c r="D24">
-        <v>0.6314906535720013</v>
+        <v>0.4507838982078454</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6494672328653195</v>
+        <v>0.8751395934928894</v>
       </c>
       <c r="G24">
-        <v>0.2399868878896356</v>
+        <v>0.3176310135516616</v>
       </c>
       <c r="H24">
-        <v>0.1723414067132012</v>
+        <v>0.4819530010070423</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.635116584579464</v>
+        <v>0.3896347551392694</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8216975197347693</v>
+        <v>1.529554632858023</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.212154060131468</v>
+        <v>1.456295877450543</v>
       </c>
       <c r="C25">
-        <v>1.116409696674907</v>
+        <v>0.3661147615479763</v>
       </c>
       <c r="D25">
-        <v>0.5256559088509505</v>
+        <v>0.4238505802398436</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5683353643952245</v>
+        <v>0.8754472630349426</v>
       </c>
       <c r="G25">
-        <v>0.2084794131114904</v>
+        <v>0.322254777162378</v>
       </c>
       <c r="H25">
-        <v>0.1711193942345375</v>
+        <v>0.4923574590113944</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5237271267815089</v>
+        <v>0.3644138711846381</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7515735934631493</v>
+        <v>1.560628083690133</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_68/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_68/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.239669154284456</v>
+        <v>3.537369040817509</v>
       </c>
       <c r="C2">
-        <v>0.3097235529693023</v>
+        <v>0.9463997171446294</v>
       </c>
       <c r="D2">
-        <v>0.4044659625363352</v>
+        <v>0.4491203918545352</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8780946014472377</v>
+        <v>0.5153550851348569</v>
       </c>
       <c r="G2">
-        <v>0.3270373396610253</v>
+        <v>0.189848207118068</v>
       </c>
       <c r="H2">
-        <v>0.5011604010670894</v>
+        <v>0.1728421569617495</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3465189411931107</v>
+        <v>0.4443316581421186</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.588787659320644</v>
+        <v>0.7150834637873942</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.092238921996511</v>
+        <v>3.080783462366639</v>
       </c>
       <c r="C3">
-        <v>0.2713006013104291</v>
+        <v>0.8313164094140291</v>
       </c>
       <c r="D3">
-        <v>0.3916086746908718</v>
+        <v>0.3979403921326821</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8813901442152599</v>
+        <v>0.4830717543421912</v>
       </c>
       <c r="G3">
-        <v>0.3311291648688481</v>
+        <v>0.1796559190206324</v>
       </c>
       <c r="H3">
-        <v>0.5078366460444315</v>
+        <v>0.1754600095681766</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.334809163559072</v>
+        <v>0.3918403434070115</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.611141893736175</v>
+        <v>0.6985303368044811</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.001421875712481</v>
+        <v>2.800527463413914</v>
       </c>
       <c r="C4">
-        <v>0.2476106893304575</v>
+        <v>0.7606617664249598</v>
       </c>
       <c r="D4">
-        <v>0.3838530251474168</v>
+        <v>0.3668019936718565</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8841514360561291</v>
+        <v>0.4648554999346999</v>
       </c>
       <c r="G4">
-        <v>0.3340581561467104</v>
+        <v>0.1744717429010478</v>
       </c>
       <c r="H4">
-        <v>0.5122855973797087</v>
+        <v>0.1777260404536918</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.327824504368678</v>
+        <v>0.3601634269856504</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.62647268827287</v>
+        <v>0.6920121333346287</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9643416861758851</v>
+        <v>2.686308564641081</v>
       </c>
       <c r="C5">
-        <v>0.2379329323356103</v>
+        <v>0.7318635885238791</v>
       </c>
       <c r="D5">
-        <v>0.3807276203612417</v>
+        <v>0.3541776167968465</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8854618446390745</v>
+        <v>0.4578108020452589</v>
       </c>
       <c r="G5">
-        <v>0.3353560648092824</v>
+        <v>0.1726114144085855</v>
       </c>
       <c r="H5">
-        <v>0.5141864097384357</v>
+        <v>0.1788071181946833</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3250297399127788</v>
+        <v>0.3473806838735101</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.633122596567802</v>
+        <v>0.6902181874906006</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9581803041372154</v>
+        <v>2.667340892553739</v>
       </c>
       <c r="C6">
-        <v>0.2363245248620274</v>
+        <v>0.7270811102670507</v>
       </c>
       <c r="D6">
-        <v>0.3802107739315659</v>
+        <v>0.3520850576478267</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8856906093244987</v>
+        <v>0.4566631871726514</v>
       </c>
       <c r="G6">
-        <v>0.3355778695048812</v>
+        <v>0.1723172415011973</v>
       </c>
       <c r="H6">
-        <v>0.5145073396181488</v>
+        <v>0.1789959266052676</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3245687827287185</v>
+        <v>0.3452653492115019</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.634251083916254</v>
+        <v>0.6899708444723984</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.000922085505977</v>
+        <v>2.798987161348691</v>
       </c>
       <c r="C7">
-        <v>0.2474802676092338</v>
+        <v>0.7602734173548527</v>
       </c>
       <c r="D7">
-        <v>0.3838107325347551</v>
+        <v>0.3666314838868203</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8841683594728238</v>
+        <v>0.4647589922413147</v>
       </c>
       <c r="G7">
-        <v>0.3340752383836261</v>
+        <v>0.1744456552962603</v>
       </c>
       <c r="H7">
-        <v>0.512310876931231</v>
+        <v>0.1777399921623584</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.327786604583622</v>
+        <v>0.3599905417373463</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.62656074315494</v>
+        <v>0.6919845181408419</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.188897734072611</v>
+        <v>3.379897916409561</v>
       </c>
       <c r="C8">
-        <v>0.2964960985494542</v>
+        <v>0.9067127531327515</v>
       </c>
       <c r="D8">
-        <v>0.4000040747079368</v>
+        <v>0.4314096023345542</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8790775468017102</v>
+        <v>0.5038748978390686</v>
       </c>
       <c r="G8">
-        <v>0.328361475529114</v>
+        <v>0.1861000235523917</v>
       </c>
       <c r="H8">
-        <v>0.5033897230123543</v>
+        <v>0.1736031618217879</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3424387839639706</v>
+        <v>0.4261096957671811</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.596161545051729</v>
+        <v>0.7085857053761657</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.555091194192187</v>
+        <v>4.521526472235223</v>
       </c>
       <c r="C9">
-        <v>0.3918104739963724</v>
+        <v>1.194322919020294</v>
       </c>
       <c r="D9">
-        <v>0.4328539629383954</v>
+        <v>0.5610654174662386</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8749664177868084</v>
+        <v>0.5945319255892016</v>
       </c>
       <c r="G9">
-        <v>0.3204819841344104</v>
+        <v>0.2183250064299429</v>
       </c>
       <c r="H9">
-        <v>0.4886749970235442</v>
+        <v>0.1710976037265937</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3728042367256421</v>
+        <v>0.560796900609887</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.549337562131512</v>
+        <v>0.7726648119436703</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.822559052067106</v>
+        <v>5.364507635546033</v>
       </c>
       <c r="C10">
-        <v>0.4613170848028858</v>
+        <v>1.406508160352303</v>
       </c>
       <c r="D10">
-        <v>0.457650548427381</v>
+        <v>0.6584613862466711</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.875551645210777</v>
+        <v>0.6714387629460958</v>
       </c>
       <c r="G10">
-        <v>0.3167473972985562</v>
+        <v>0.2489717035193806</v>
       </c>
       <c r="H10">
-        <v>0.4795652223595894</v>
+        <v>0.1732380244039149</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3961179725474722</v>
+        <v>0.6637794468524163</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.522804575096515</v>
+        <v>0.8428098655861618</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.943877057524276</v>
+        <v>5.749587942163998</v>
       </c>
       <c r="C11">
-        <v>0.4928185808826697</v>
+        <v>1.503377512519705</v>
       </c>
       <c r="D11">
-        <v>0.4690738536491494</v>
+        <v>0.7033636314743603</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.876606479177056</v>
+        <v>0.7090937789822647</v>
       </c>
       <c r="G11">
-        <v>0.3155004086738202</v>
+        <v>0.2647290219237703</v>
       </c>
       <c r="H11">
-        <v>0.4757917547059307</v>
+        <v>0.1752113432695097</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4069441559018117</v>
+        <v>0.7117367458786532</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.512458110483962</v>
+        <v>0.8806519143638241</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.989763988017273</v>
+        <v>5.895697782490231</v>
       </c>
       <c r="C12">
-        <v>0.5047298738130621</v>
+        <v>1.5401223623291</v>
       </c>
       <c r="D12">
-        <v>0.4734200106640571</v>
+        <v>0.7204643232124965</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8771197473566161</v>
+        <v>0.7237756352944729</v>
       </c>
       <c r="G12">
-        <v>0.3150936584514596</v>
+        <v>0.2709843426570018</v>
       </c>
       <c r="H12">
-        <v>0.4744162564645649</v>
+        <v>0.1761145862262197</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4110755879714958</v>
+        <v>0.7300776206601682</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.508789272788306</v>
+        <v>0.8959183815797189</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.979883839833974</v>
+        <v>5.864216621016965</v>
       </c>
       <c r="C13">
-        <v>0.502165360254196</v>
+        <v>1.532205702960653</v>
       </c>
       <c r="D13">
-        <v>0.4724830838162291</v>
+        <v>0.7167768686637146</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8770041367203163</v>
+        <v>0.7205941832998803</v>
       </c>
       <c r="G13">
-        <v>0.3151783406072397</v>
+        <v>0.2696238658268015</v>
       </c>
       <c r="H13">
-        <v>0.4747101160189757</v>
+        <v>0.1759129137275011</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4101843952293507</v>
+        <v>0.7261192067662989</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.509568321187061</v>
+        <v>0.8925874256221391</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.947653291195365</v>
+        <v>5.761602360977065</v>
       </c>
       <c r="C14">
-        <v>0.4937988879545969</v>
+        <v>1.506399202347723</v>
       </c>
       <c r="D14">
-        <v>0.4694310068832976</v>
+        <v>0.7047684990507435</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8766464224052299</v>
+        <v>0.7102929589442653</v>
       </c>
       <c r="G14">
-        <v>0.3154656305098769</v>
+        <v>0.2652377080797805</v>
       </c>
       <c r="H14">
-        <v>0.4756775199890129</v>
+        <v>0.1752824537828701</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.407283413799874</v>
+        <v>0.7132419176677161</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.512151272336425</v>
+        <v>0.8818886259707313</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.927904097252338</v>
+        <v>5.698787503015865</v>
       </c>
       <c r="C15">
-        <v>0.488671862548415</v>
+        <v>1.490600520678242</v>
       </c>
       <c r="D15">
-        <v>0.4675641724558375</v>
+        <v>0.6974260378882775</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8764421480455979</v>
+        <v>0.7040394163035018</v>
       </c>
       <c r="G15">
-        <v>0.3156501424235216</v>
+        <v>0.2625894579641752</v>
       </c>
       <c r="H15">
-        <v>0.4762770453813019</v>
+        <v>0.1749169730945823</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4055106209423798</v>
+        <v>0.7053783601766952</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.513765888981666</v>
+        <v>0.8754598486435441</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.814623279994976</v>
+        <v>5.339378822155368</v>
       </c>
       <c r="C16">
-        <v>0.4592559604842563</v>
+        <v>1.40018554276395</v>
       </c>
       <c r="D16">
-        <v>0.4569068737257282</v>
+        <v>0.6555398748462835</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8754986145034849</v>
+        <v>0.6690348902026244</v>
       </c>
       <c r="G16">
-        <v>0.3168380248906857</v>
+        <v>0.2479807480601437</v>
       </c>
       <c r="H16">
-        <v>0.4798192968725772</v>
+        <v>0.1731302037051492</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3954149013474506</v>
+        <v>0.6606694054297435</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.523515534119994</v>
+        <v>0.8404631624477759</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.745036526342801</v>
+        <v>5.11934351469165</v>
       </c>
       <c r="C17">
-        <v>0.4411796447118945</v>
+        <v>1.344816114949367</v>
       </c>
       <c r="D17">
-        <v>0.4504055077931923</v>
+        <v>0.6300046501226575</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8751220718747845</v>
+        <v>0.6482712049574531</v>
       </c>
       <c r="G17">
-        <v>0.3176828321166667</v>
+        <v>0.2395026177450248</v>
       </c>
       <c r="H17">
-        <v>0.4820873750854062</v>
+        <v>0.1722985259817094</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3892780620811038</v>
+        <v>0.6335405210366076</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.529938990353372</v>
+        <v>0.8205706739774143</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.704978855460752</v>
+        <v>4.992932258334406</v>
       </c>
       <c r="C18">
-        <v>0.4307716194696809</v>
+        <v>1.313000740554401</v>
       </c>
       <c r="D18">
-        <v>0.4466795856303918</v>
+        <v>0.6153728555426596</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8749796970886408</v>
+        <v>0.6365772719369005</v>
       </c>
       <c r="G18">
-        <v>0.3182112489553859</v>
+        <v>0.2347954005725086</v>
       </c>
       <c r="H18">
-        <v>0.4834267894335582</v>
+        <v>0.1719134699808507</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3857690791557218</v>
+        <v>0.6180398365759885</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.533795741136245</v>
+        <v>0.8096820971719296</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.691410391918907</v>
+        <v>4.950155190096268</v>
       </c>
       <c r="C19">
-        <v>0.4272457737772015</v>
+        <v>1.302233664187838</v>
       </c>
       <c r="D19">
-        <v>0.4454203755488209</v>
+        <v>0.6104279614855272</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8749442228429913</v>
+        <v>0.6326595028982425</v>
       </c>
       <c r="G19">
-        <v>0.3183974477545704</v>
+        <v>0.233229878480806</v>
       </c>
       <c r="H19">
-        <v>0.4838862778491091</v>
+        <v>0.1717987636874128</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.384584562282285</v>
+        <v>0.6128086763850433</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.535129380089273</v>
+        <v>0.8060879628788484</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.752447611123046</v>
+        <v>5.142751008948153</v>
       </c>
       <c r="C20">
-        <v>0.4431050440267654</v>
+        <v>1.350706919057188</v>
       </c>
       <c r="D20">
-        <v>0.4510961943832967</v>
+        <v>0.6327171057352245</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8751544727119551</v>
+        <v>0.6504555143263531</v>
       </c>
       <c r="G20">
-        <v>0.3175884982748869</v>
+        <v>0.240387429196609</v>
       </c>
       <c r="H20">
-        <v>0.4818423237760072</v>
+        <v>0.1723773172960037</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3899291895775008</v>
+        <v>0.6364176176439145</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.52923841123453</v>
+        <v>0.8226304404553417</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.957121658883409</v>
+        <v>5.791734348299826</v>
       </c>
       <c r="C21">
-        <v>0.4962568084031886</v>
+        <v>1.513977391707954</v>
       </c>
       <c r="D21">
-        <v>0.4703269237790266</v>
+        <v>0.7082929148561732</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8767483992103706</v>
+        <v>0.7133068811696148</v>
       </c>
       <c r="G21">
-        <v>0.3153794662289187</v>
+        <v>0.2665179751670195</v>
       </c>
       <c r="H21">
-        <v>0.4753919187625257</v>
+        <v>0.1754632992740142</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4081346390592842</v>
+        <v>0.7170192162233207</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.511385824915749</v>
+        <v>0.8850050093166999</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.090574578272708</v>
+        <v>6.217593243777571</v>
       </c>
       <c r="C22">
-        <v>0.5308913950134411</v>
+        <v>1.621055370392924</v>
       </c>
       <c r="D22">
-        <v>0.4830141299110551</v>
+        <v>0.7582585530082611</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.878453779578507</v>
+        <v>0.7568680874355067</v>
       </c>
       <c r="G22">
-        <v>0.3143174906438873</v>
+        <v>0.2852908222661199</v>
       </c>
       <c r="H22">
-        <v>0.4714877130864465</v>
+        <v>0.1783957861060372</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4202182862767216</v>
+        <v>0.7707600162878094</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.501170930457477</v>
+        <v>0.9312725696380255</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.019377769559298</v>
+        <v>5.990127430837106</v>
       </c>
       <c r="C23">
-        <v>0.5124159514994062</v>
+        <v>1.563867302948552</v>
       </c>
       <c r="D23">
-        <v>0.4762319219245228</v>
+        <v>0.7315345402399203</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8774827216736014</v>
+        <v>0.7333777062914208</v>
       </c>
       <c r="G23">
-        <v>0.3148491998231435</v>
+        <v>0.2751067430232155</v>
       </c>
       <c r="H23">
-        <v>0.4735429126582886</v>
+        <v>0.1767425825849784</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.413752037662789</v>
+        <v>0.7419729129778574</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.506489450989079</v>
+        <v>0.9060459669021554</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.749097219353303</v>
+        <v>5.132168204845755</v>
       </c>
       <c r="C24">
-        <v>0.4422346198775244</v>
+        <v>1.348043633758493</v>
       </c>
       <c r="D24">
-        <v>0.4507838982078454</v>
+        <v>0.6314906535720297</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8751395934928894</v>
+        <v>0.6494672328652911</v>
       </c>
       <c r="G24">
-        <v>0.3176310135516616</v>
+        <v>0.2399868878896214</v>
       </c>
       <c r="H24">
-        <v>0.4819530010070423</v>
+        <v>0.1723414067132012</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3896347551392694</v>
+        <v>0.6351165845794782</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.529554632858023</v>
+        <v>0.8216975197347551</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.456295877450543</v>
+        <v>4.212154060131866</v>
       </c>
       <c r="C25">
-        <v>0.3661147615479763</v>
+        <v>1.116409696674737</v>
       </c>
       <c r="D25">
-        <v>0.4238505802398436</v>
+        <v>0.5256559088510926</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8754472630349426</v>
+        <v>0.5683353643952103</v>
       </c>
       <c r="G25">
-        <v>0.322254777162378</v>
+        <v>0.2084794131114478</v>
       </c>
       <c r="H25">
-        <v>0.4923574590113944</v>
+        <v>0.1711193942346512</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3644138711846381</v>
+        <v>0.523727126781381</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.560628083690133</v>
+        <v>0.7515735934631635</v>
       </c>
     </row>
   </sheetData>
